--- a/PPP_ANALYSIS.xlsx
+++ b/PPP_ANALYSIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAECFC1-D715-6A4E-AFD2-500FFB4A2305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1AB2C4-38A1-AE4C-9E94-A935959EA016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="460" windowWidth="14940" windowHeight="17540" firstSheet="3" activeTab="6" xr2:uid="{066ADAC1-9B2C-B745-ADE5-8390A8851205}"/>
+    <workbookView xWindow="13060" yWindow="460" windowWidth="15740" windowHeight="17540" firstSheet="1" activeTab="5" xr2:uid="{066ADAC1-9B2C-B745-ADE5-8390A8851205}"/>
   </bookViews>
   <sheets>
     <sheet name="17_18PerOpp" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -186,12 +186,6 @@
     <t>UCSanDiego@SimonFraser</t>
   </si>
   <si>
-    <t xml:space="preserve">1.36	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.06	</t>
-  </si>
-  <si>
     <t>UCSD AVG PPP</t>
   </si>
   <si>
@@ -382,6 +376,57 @@
   </si>
   <si>
     <t>2019-2020(WC)</t>
+  </si>
+  <si>
+    <t>OPP_PPP</t>
+  </si>
+  <si>
+    <t>UCSD_PPP</t>
+  </si>
+  <si>
+    <t>OPP_PPP_Adj</t>
+  </si>
+  <si>
+    <t>UCSD_PPP_Adj</t>
+  </si>
+  <si>
+    <t>UCSD Season PPP</t>
+  </si>
+  <si>
+    <t>UCSD_POSS</t>
+  </si>
+  <si>
+    <t>OPP_POSS</t>
+  </si>
+  <si>
+    <t>NotreDameCA</t>
+  </si>
+  <si>
+    <t>SaintMartin's</t>
+  </si>
+  <si>
+    <t>SimonFraser</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>UCSD_MEDIAN_PPP</t>
+  </si>
+  <si>
+    <t>OPP_TOTAL_APP</t>
+  </si>
+  <si>
+    <t>UCSD Pts</t>
+  </si>
+  <si>
+    <t>Opp Pts</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Losses</t>
   </si>
 </sst>
 </file>
@@ -447,7 +492,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,6 +511,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -803,39 +852,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2">
         <v>0.73666666666666669</v>
@@ -850,7 +899,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -869,7 +918,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3">
         <v>0.95333333333333348</v>
@@ -884,7 +933,7 @@
         <v>0.91300000000000003</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -903,7 +952,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4">
         <v>0.79499999999999993</v>
@@ -918,7 +967,7 @@
         <v>0.88300000000000001</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -937,7 +986,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5">
         <v>1.0049999999999999</v>
@@ -952,7 +1001,7 @@
         <v>0.88500000000000001</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -971,7 +1020,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6">
         <v>0.9</v>
@@ -986,7 +1035,7 @@
         <v>0.84899999999999998</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>2</v>
@@ -1005,7 +1054,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7">
         <v>0.93500000000000005</v>
@@ -1020,7 +1069,7 @@
         <v>0.90500000000000003</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1039,7 +1088,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8">
         <v>1.08</v>
@@ -1054,7 +1103,7 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1073,7 +1122,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9">
         <f>AVERAGE(0.9,0.74)</f>
@@ -1090,7 +1139,7 @@
         <v>0.92</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1109,7 +1158,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10">
         <f>AVERAGE(0.94,0.89)</f>
@@ -1126,7 +1175,7 @@
         <v>0.88600000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1145,7 +1194,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11">
         <f>AVERAGE(0.85,0.98)</f>
@@ -1162,7 +1211,7 @@
         <v>0.99299999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1181,7 +1230,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12">
         <v>0.93</v>
@@ -1196,7 +1245,7 @@
         <v>0.85699999999999998</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1215,7 +1264,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13">
         <f>AVERAGE(0.94,1.04)</f>
@@ -1232,7 +1281,7 @@
         <v>0.84499999999999997</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1251,7 +1300,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14">
         <v>0.8</v>
@@ -1266,7 +1315,7 @@
         <v>0.89400000000000002</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1285,7 +1334,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15">
         <v>0.92</v>
@@ -1300,7 +1349,7 @@
         <v>0.99099999999999999</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1319,7 +1368,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16">
         <v>1.05</v>
@@ -1334,7 +1383,7 @@
         <v>1.006</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1353,7 +1402,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17">
         <v>0.94</v>
@@ -1368,7 +1417,7 @@
         <v>0.93300000000000005</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1387,7 +1436,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18">
         <v>0.83</v>
@@ -1402,7 +1451,7 @@
         <v>0.91500000000000004</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1421,7 +1470,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19">
         <v>0.91</v>
@@ -1436,7 +1485,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1462,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976DDD6A-9851-0142-9F0F-D495172D78C1}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J31"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1496,16 +1545,16 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" t="s">
         <v>95</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2547,39 +2596,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3">
         <f>AVERAGE(0.89,0.79)</f>
@@ -2596,7 +2645,7 @@
         <v>0.872</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -2615,7 +2664,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3">
         <f>AVERAGE(0.82,0.96)</f>
@@ -2632,7 +2681,7 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>2</v>
@@ -2651,7 +2700,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="3">
         <f>AVERAGE(1.1,0.85)</f>
@@ -2668,7 +2717,7 @@
         <v>0.85</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2687,7 +2736,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
         <f>AVERAGE(0.68,1.09)</f>
@@ -2704,7 +2753,7 @@
         <v>0.91400000000000003</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -2723,7 +2772,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B6" s="3">
         <f>AVERAGE(0.92,0.73)</f>
@@ -2740,7 +2789,7 @@
         <v>0.84099999999999997</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2759,7 +2808,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="3">
         <f>AVERAGE(0.81,0.94,0.72)</f>
@@ -2776,7 +2825,7 @@
         <v>0.86299999999999999</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -2795,7 +2844,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B8" s="3">
         <f>AVERAGE(0.92,0.78,0.66)</f>
@@ -2812,7 +2861,7 @@
         <v>0.87</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -2831,7 +2880,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B9" s="3">
         <f>AVERAGE(0.79,1.04)</f>
@@ -2848,7 +2897,7 @@
         <v>0.90400000000000003</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -2867,7 +2916,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B10" s="3">
         <f>AVERAGE(0.93,0.99)</f>
@@ -2884,7 +2933,7 @@
         <v>0.86199999999999999</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -2903,7 +2952,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="3">
         <f>AVERAGE(0.76,0.93)</f>
@@ -2920,7 +2969,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -2939,7 +2988,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="3">
         <f>AVERAGE(0.96,0.81)</f>
@@ -2956,7 +3005,7 @@
         <v>0.91</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>2</v>
@@ -2975,7 +3024,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="3">
         <f>AVERAGE(0.94,0.86)</f>
@@ -2992,7 +3041,7 @@
         <v>0.83599999999999997</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -3011,7 +3060,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B14" s="3">
         <v>0.76</v>
@@ -3026,7 +3075,7 @@
         <v>0.93100000000000005</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="10">
         <v>1</v>
@@ -3045,7 +3094,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B15" s="3">
         <v>1.18</v>
@@ -3060,7 +3109,7 @@
         <v>0.94</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="10">
         <v>1</v>
@@ -3079,7 +3128,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="3">
         <v>0.86</v>
@@ -3094,7 +3143,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="10">
         <v>1</v>
@@ -3113,7 +3162,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="3">
         <f>AVERAGE(0.99,0.85)</f>
@@ -3130,7 +3179,7 @@
         <v>1.0149999999999999</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G17" s="10">
         <v>0</v>
@@ -3149,7 +3198,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="3">
         <v>0.69</v>
@@ -3164,7 +3213,7 @@
         <v>0.80700000000000005</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G18" s="10">
         <v>1</v>
@@ -3183,7 +3232,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="3">
         <v>0.94</v>
@@ -3198,7 +3247,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3217,7 +3266,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="3">
         <v>0.95</v>
@@ -3232,7 +3281,7 @@
         <v>0.97699999999999998</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G20" s="10">
         <v>0</v>
@@ -3292,16 +3341,16 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H1" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4457,7 +4506,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J1" activeCellId="1" sqref="I1 J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4472,39 +4521,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
         <v>69</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3">
         <v>1.1200000000000001</v>
@@ -4519,7 +4568,7 @@
         <v>0.998</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
@@ -4538,7 +4587,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" s="3">
         <v>0.75</v>
@@ -4553,7 +4602,7 @@
         <v>0.86899999999999999</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G3" s="9">
         <v>1</v>
@@ -4572,7 +4621,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="3">
         <v>0.9</v>
@@ -4587,7 +4636,7 @@
         <v>0.88200000000000001</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G4" s="9">
         <v>1</v>
@@ -4606,7 +4655,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3">
         <v>0.87</v>
@@ -4621,7 +4670,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="9">
         <v>1</v>
@@ -4640,7 +4689,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3">
         <v>0.78</v>
@@ -4655,7 +4704,7 @@
         <v>0.98499999999999999</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G6" s="9">
         <v>1</v>
@@ -4674,7 +4723,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="3">
         <v>0.97</v>
@@ -4689,7 +4738,7 @@
         <v>0.84</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G7" s="9">
         <v>1</v>
@@ -4708,7 +4757,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3">
         <v>0.72</v>
@@ -4723,7 +4772,7 @@
         <v>0.90600000000000003</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="9">
         <v>1</v>
@@ -4742,7 +4791,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="3">
         <v>0.92</v>
@@ -4757,7 +4806,7 @@
         <v>0.86699999999999999</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="9">
         <v>1</v>
@@ -4776,7 +4825,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B10" s="3">
         <v>0.89</v>
@@ -4791,7 +4840,7 @@
         <v>0.88800000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G10" s="9">
         <v>1</v>
@@ -4810,7 +4859,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B11" s="3">
         <v>0.93</v>
@@ -4825,7 +4874,7 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G11" s="9">
         <v>1</v>
@@ -4844,7 +4893,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B12" s="3">
         <v>0.83</v>
@@ -4859,7 +4908,7 @@
         <v>0.98</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G12" s="9">
         <v>1</v>
@@ -4878,7 +4927,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B13" s="3">
         <v>0.71</v>
@@ -4893,7 +4942,7 @@
         <v>0.93400000000000005</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G13" s="9">
         <v>1</v>
@@ -4912,7 +4961,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B14" s="3">
         <v>0.77</v>
@@ -4927,7 +4976,7 @@
         <v>0.998</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G14" s="9">
         <v>1</v>
@@ -4946,7 +4995,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="4">
         <v>1.1000000000000001</v>
@@ -4961,7 +5010,7 @@
         <v>0.79700000000000004</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G15" s="9">
         <v>1</v>
@@ -4980,7 +5029,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3">
         <v>0.84</v>
@@ -4995,7 +5044,7 @@
         <v>0.82299999999999995</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="9">
         <v>1</v>
@@ -5019,22 +5068,29 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267967-BA35-EE4A-8F7E-340F63D5A37B}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5054,587 +5110,1622 @@
         <v>33</v>
       </c>
       <c r="G1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>43862.833333333336</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>92.4</v>
+      </c>
+      <c r="D2">
+        <v>103.9</v>
+      </c>
+      <c r="E2">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+      <c r="G2">
+        <v>1.23</v>
+      </c>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>0</v>
+      </c>
+      <c r="J2" s="10">
+        <v>7</v>
+      </c>
+      <c r="K2" s="11">
+        <v>92.4</v>
+      </c>
+      <c r="L2" s="11">
+        <v>103.9</v>
+      </c>
+      <c r="M2">
+        <f>0.01*K2</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="N2">
+        <f>0.01*L2</f>
+        <v>1.0390000000000001</v>
+      </c>
+      <c r="O2" s="11">
+        <v>77</v>
+      </c>
+      <c r="P2" s="11">
+        <v>79</v>
+      </c>
+      <c r="Q2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="R2" s="11">
+        <v>1.266</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0.96438095238095201</v>
+      </c>
+      <c r="T2" s="11">
+        <v>80</v>
+      </c>
+      <c r="U2" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>43860.770833333336</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9">
+        <v>91.3</v>
+      </c>
+      <c r="D3" s="9">
+        <v>123.2</v>
+      </c>
+      <c r="E3">
+        <v>63</v>
+      </c>
+      <c r="F3">
+        <v>85</v>
+      </c>
+      <c r="G3">
+        <v>1.23</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="0">ABS(E3-F3)</f>
+        <v>22</v>
+      </c>
+      <c r="K3" s="4">
+        <v>91.3</v>
+      </c>
+      <c r="L3" s="4">
+        <v>123.2</v>
+      </c>
+      <c r="M3">
+        <f>0.01*K3</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="N3">
+        <f>0.01*L3</f>
+        <v>1.232</v>
+      </c>
+      <c r="O3">
+        <v>69</v>
+      </c>
+      <c r="P3">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R3">
+        <v>1.266</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T3">
+        <v>85</v>
+      </c>
+      <c r="U3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>43855.583333333336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="9">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="D4" s="9">
+        <v>82.6</v>
+      </c>
+      <c r="E4">
+        <v>92</v>
+      </c>
+      <c r="F4">
+        <v>57</v>
+      </c>
+      <c r="G4">
+        <v>1.23</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>82.6</v>
+      </c>
+      <c r="L4" s="4">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M23" si="1">0.01*K4</f>
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N23" si="2">0.01*L4</f>
+        <v>1.3330000000000002</v>
+      </c>
+      <c r="O4">
+        <v>69</v>
+      </c>
+      <c r="P4">
+        <v>69</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4">
+        <v>1.266</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T4">
+        <v>92</v>
+      </c>
+      <c r="U4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>43853.770833333336</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9">
+        <v>119.1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="E5">
+        <v>81</v>
+      </c>
+      <c r="F5">
+        <v>56</v>
+      </c>
+      <c r="G5">
+        <v>1.23</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="K5" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="L5" s="9">
+        <v>119.1</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0.82400000000000007</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="2"/>
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="O5">
+        <v>68</v>
+      </c>
+      <c r="P5">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5">
+        <v>1.266</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T5">
+        <v>81</v>
+      </c>
+      <c r="U5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>43848.770833333336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="9">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="D6" s="9">
+        <v>120.8</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>87</v>
+      </c>
+      <c r="G6">
+        <v>1.23</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="K6">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="L6">
+        <v>120.8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0.81900000000000006</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="2"/>
+        <v>1.208</v>
+      </c>
+      <c r="O6">
+        <v>72</v>
+      </c>
+      <c r="P6">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R6">
+        <v>1.266</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T6">
+        <v>87</v>
+      </c>
+      <c r="U6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>43846.770833333336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="9">
         <v>95</v>
       </c>
-      <c r="I1" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>43846.770833333336</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D7" s="9">
+        <v>115</v>
+      </c>
+      <c r="E7">
+        <v>57</v>
+      </c>
+      <c r="F7">
+        <v>69</v>
+      </c>
+      <c r="G7">
+        <v>1.23</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J23" si="3">ABS(E7-F7)</f>
+        <v>12</v>
+      </c>
+      <c r="K7">
+        <v>95</v>
+      </c>
+      <c r="L7">
+        <v>115</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="2"/>
+        <v>1.1500000000000001</v>
+      </c>
+      <c r="O7">
+        <v>60</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>55</v>
+      </c>
+      <c r="R7">
+        <v>1.266</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T7">
+        <v>69</v>
+      </c>
+      <c r="U7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>43841.770833333336</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="D8" s="9">
+        <v>106.1</v>
+      </c>
+      <c r="E8">
+        <v>86</v>
+      </c>
+      <c r="F8">
+        <v>70</v>
+      </c>
+      <c r="G8">
+        <v>1.23</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>106.1</v>
+      </c>
+      <c r="L8">
+        <v>132.30000000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>1.0609999999999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>1.3230000000000002</v>
+      </c>
+      <c r="O8">
+        <v>65</v>
+      </c>
+      <c r="P8">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8">
+        <v>1.266</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T8">
+        <v>86</v>
+      </c>
+      <c r="U8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>43839.770833333336</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>107.2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>85.7</v>
+      </c>
+      <c r="E9">
+        <v>74</v>
+      </c>
+      <c r="F9">
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>1.23</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>85.7</v>
+      </c>
+      <c r="L9">
+        <v>107.2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.8570000000000001</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="O9">
+        <v>69</v>
+      </c>
+      <c r="P9">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9">
+        <v>1.266</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T9">
+        <v>74</v>
+      </c>
+      <c r="U9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>43834.770833333336</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="9">
+        <v>101.4</v>
+      </c>
+      <c r="D10" s="9">
+        <v>105.6</v>
+      </c>
+      <c r="E10">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>76</v>
+      </c>
+      <c r="G10">
+        <v>1.23</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>101.4</v>
+      </c>
+      <c r="L10">
+        <v>105.6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>1.014</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>1.056</v>
+      </c>
+      <c r="O10">
+        <v>72</v>
+      </c>
+      <c r="P10">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10">
+        <v>1.266</v>
+      </c>
+      <c r="S10" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T10">
+        <v>76</v>
+      </c>
+      <c r="U10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>43832.770833333336</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="9">
+        <v>102.9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>94</v>
+      </c>
+      <c r="G11">
+        <v>1.23</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>102.9</v>
+      </c>
+      <c r="L11">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1.0290000000000001</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>1.3619999999999999</v>
+      </c>
+      <c r="O11">
+        <v>69</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="R11">
+        <v>1.266</v>
+      </c>
+      <c r="S11" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T11">
+        <v>94</v>
+      </c>
+      <c r="U11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>44187.604166666664</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="9">
+        <v>95.7</v>
+      </c>
+      <c r="D12" s="9">
+        <v>81.2</v>
+      </c>
+      <c r="E12">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12">
+        <v>1.23</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="4">
+        <v>81.2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>95.7</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>0.95700000000000007</v>
+      </c>
+      <c r="O12">
+        <v>69</v>
+      </c>
+      <c r="P12">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R12">
+        <v>1.266</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T12">
+        <v>66</v>
+      </c>
+      <c r="U12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>44184.770833333336</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9">
+        <v>109.5</v>
+      </c>
+      <c r="D13" s="9">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="E13">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>84</v>
+      </c>
+      <c r="G13">
+        <v>1.23</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="K13" s="4">
+        <v>109.5</v>
+      </c>
+      <c r="L13" s="4">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1.095</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>1.3330000000000002</v>
+      </c>
+      <c r="O13">
+        <v>63</v>
+      </c>
+      <c r="P13">
+        <v>63</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="R13">
+        <v>1.266</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T13">
+        <v>84</v>
+      </c>
+      <c r="U13">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>44182.770833333336</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="9">
+        <v>142.4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>108.3</v>
+      </c>
+      <c r="E14">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>1.23</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>108.3</v>
+      </c>
+      <c r="L14">
+        <v>142.4</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>1.083</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>1.4240000000000002</v>
+      </c>
+      <c r="O14">
+        <v>59</v>
+      </c>
+      <c r="P14">
+        <v>60</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14">
+        <v>1.266</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T14">
+        <v>84</v>
+      </c>
+      <c r="U14">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>44170.770833333336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="9">
+        <v>119.1</v>
+      </c>
+      <c r="D15" s="9">
+        <v>105.8</v>
+      </c>
+      <c r="E15">
+        <v>81</v>
+      </c>
+      <c r="F15">
+        <v>73</v>
+      </c>
+      <c r="G15">
+        <v>1.23</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>119.1</v>
+      </c>
+      <c r="L15">
+        <v>105.8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>1.0580000000000001</v>
+      </c>
+      <c r="O15">
+        <v>69</v>
+      </c>
+      <c r="P15">
+        <v>69</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R15">
+        <v>1.266</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T15">
+        <v>73</v>
+      </c>
+      <c r="U15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>44165.75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="15">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="D16" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <v>63</v>
+      </c>
+      <c r="G16">
+        <v>1.23</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="K16">
+        <v>95.5</v>
+      </c>
+      <c r="L16" s="2">
+        <v>146.19999999999999</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0.95500000000000007</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>1.462</v>
+      </c>
+      <c r="O16">
+        <v>65</v>
+      </c>
+      <c r="P16">
+        <v>66</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R16">
+        <v>1.266</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T16">
+        <v>95</v>
+      </c>
+      <c r="U16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>44164.666666666664</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="9">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="D17" s="9">
+        <v>119.4</v>
+      </c>
+      <c r="E17">
+        <v>98</v>
+      </c>
+      <c r="F17">
+        <v>80</v>
+      </c>
+      <c r="G17">
+        <v>1.23</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="K17">
+        <v>119.4</v>
+      </c>
+      <c r="L17">
+        <v>146.30000000000001</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1.1940000000000002</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="O17">
+        <v>67</v>
+      </c>
+      <c r="P17">
+        <v>67</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="R17">
+        <v>1.266</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T17">
+        <v>98</v>
+      </c>
+      <c r="U17">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>44159.583333333336</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="15">
+        <v>116.2</v>
+      </c>
+      <c r="D18" s="9">
+        <v>102.7</v>
+      </c>
+      <c r="E18">
+        <v>86</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>1.23</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="K18">
+        <v>102.7</v>
+      </c>
+      <c r="L18" s="2">
+        <v>116.2</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>1.0270000000000001</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>1.1620000000000001</v>
+      </c>
+      <c r="O18">
+        <v>74</v>
+      </c>
+      <c r="P18">
+        <v>75</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R18">
+        <v>1.266</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T18">
+        <v>86</v>
+      </c>
+      <c r="U18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>44156.770833333336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9">
+        <v>83.1</v>
+      </c>
+      <c r="D19" s="9">
+        <v>126.6</v>
+      </c>
+      <c r="E19">
+        <v>54</v>
+      </c>
+      <c r="F19">
+        <v>81</v>
+      </c>
+      <c r="G19">
+        <v>1.23</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>83.1</v>
+      </c>
+      <c r="L19">
+        <v>126.6</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>1.266</v>
+      </c>
+      <c r="O19">
+        <v>64</v>
+      </c>
+      <c r="P19">
+        <v>65</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19">
+        <v>1.266</v>
+      </c>
+      <c r="S19" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T19">
+        <v>81</v>
+      </c>
+      <c r="U19">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>44154.75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="9">
+        <v>92.6</v>
+      </c>
+      <c r="D20" s="9">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="E20">
+        <v>63</v>
+      </c>
+      <c r="F20">
+        <v>88</v>
+      </c>
+      <c r="G20">
+        <v>1.23</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K20">
+        <v>92.6</v>
+      </c>
+      <c r="L20" s="2">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0.92599999999999993</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>1.3130000000000002</v>
+      </c>
+      <c r="O20">
+        <v>67</v>
+      </c>
+      <c r="P20">
+        <v>68</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="R20">
+        <v>1.266</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T20">
+        <v>88</v>
+      </c>
+      <c r="U20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>44146.75</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="9">
+        <v>130.4</v>
+      </c>
+      <c r="D21" s="9">
+        <v>79.7</v>
+      </c>
+      <c r="E21">
+        <v>88</v>
+      </c>
+      <c r="F21">
+        <v>55</v>
+      </c>
+      <c r="G21">
+        <v>1.23</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="K21">
+        <v>79.7</v>
+      </c>
+      <c r="L21">
+        <v>130.4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>1.304</v>
+      </c>
+      <c r="O21">
+        <v>69</v>
+      </c>
+      <c r="P21">
+        <v>69</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21">
+        <v>1.266</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T21">
+        <v>88</v>
+      </c>
+      <c r="U21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>44144.770833333336</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="9">
+        <v>116.9</v>
+      </c>
+      <c r="D22" s="9">
+        <v>106.2</v>
+      </c>
+      <c r="E22">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>69</v>
+      </c>
+      <c r="G22">
+        <v>1.23</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>0.83</v>
-      </c>
-      <c r="D2">
-        <v>1.01</v>
-      </c>
-      <c r="E2">
-        <v>57</v>
-      </c>
-      <c r="F2">
+      <c r="K22">
+        <v>106.2</v>
+      </c>
+      <c r="L22" s="2">
+        <v>116.9</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>1.0620000000000001</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>1.169</v>
+      </c>
+      <c r="O22">
+        <v>65</v>
+      </c>
+      <c r="P22">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R22">
+        <v>1.266</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T22">
+        <v>76</v>
+      </c>
+      <c r="U22">
         <v>69</v>
       </c>
-      <c r="G2">
-        <v>1.113</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J18" si="0">ABS(E2-F2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>43841.770833333336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>44143.666666666664</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="9">
+        <v>131.9</v>
+      </c>
+      <c r="D23" s="9">
+        <v>98.6</v>
+      </c>
+      <c r="E23">
+        <v>95</v>
+      </c>
+      <c r="F23">
+        <v>70</v>
+      </c>
+      <c r="G23">
         <v>1.23</v>
       </c>
-      <c r="D3">
-        <v>0.96</v>
-      </c>
-      <c r="E3">
-        <v>86</v>
-      </c>
-      <c r="F3">
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="K23">
+        <v>98.6</v>
+      </c>
+      <c r="L23">
+        <v>131.9</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>1.3190000000000002</v>
+      </c>
+      <c r="O23">
+        <v>72</v>
+      </c>
+      <c r="P23">
+        <v>71</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="R23">
+        <v>1.266</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0.96438095238095245</v>
+      </c>
+      <c r="T23">
+        <v>95</v>
+      </c>
+      <c r="U23">
         <v>70</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>43839.770833333336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1.03</v>
-      </c>
-      <c r="D4">
-        <v>0.75</v>
-      </c>
-      <c r="E4">
-        <v>74</v>
-      </c>
-      <c r="F4">
-        <v>60</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>43834.770833333336</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5">
-        <v>0.92</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>73</v>
-      </c>
-      <c r="F5">
-        <v>76</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>43832.770833333336</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6">
-        <v>0.89</v>
-      </c>
-      <c r="D6">
-        <v>1.22</v>
-      </c>
-      <c r="E6">
-        <v>72</v>
-      </c>
-      <c r="F6">
-        <v>94</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44187.604166666664</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>0.87</v>
-      </c>
-      <c r="D7">
-        <v>0.78</v>
-      </c>
-      <c r="E7">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>56</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44184.770833333336</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0.97</v>
-      </c>
-      <c r="D8">
-        <v>1.22</v>
-      </c>
-      <c r="E8">
-        <v>69</v>
-      </c>
-      <c r="F8">
-        <v>84</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44182.770833333336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>1.33</v>
-      </c>
-      <c r="D9">
-        <v>0.9</v>
-      </c>
-      <c r="E9">
-        <v>84</v>
-      </c>
-      <c r="F9">
-        <v>65</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44170.770833333336</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D10">
-        <v>0.94</v>
-      </c>
-      <c r="E10">
-        <v>81</v>
-      </c>
-      <c r="F10">
-        <v>73</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44165.75</v>
-      </c>
-      <c r="B11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11">
-        <v>0.84</v>
-      </c>
-      <c r="E11">
-        <v>95</v>
-      </c>
-      <c r="F11">
-        <v>63</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44164.666666666664</v>
-      </c>
-      <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>1.36</v>
-      </c>
-      <c r="D12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12">
-        <v>98</v>
-      </c>
-      <c r="F12">
-        <v>80</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44159.583333333336</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13">
-        <v>0.87</v>
-      </c>
-      <c r="E13">
-        <v>86</v>
-      </c>
-      <c r="F13">
-        <v>77</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44156.770833333336</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>0.72</v>
-      </c>
-      <c r="D14">
-        <v>1.07</v>
-      </c>
-      <c r="E14">
-        <v>54</v>
-      </c>
-      <c r="F14">
-        <v>81</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44154.75</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15">
-        <v>0.77</v>
-      </c>
-      <c r="D15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15">
-        <v>63</v>
-      </c>
-      <c r="F15">
-        <v>88</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>44146.75</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.71</v>
-      </c>
-      <c r="E16">
-        <v>88</v>
-      </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>44144.770833333336</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17">
-        <v>1.03</v>
-      </c>
-      <c r="D17">
-        <v>0.83</v>
-      </c>
-      <c r="E17">
-        <v>76</v>
-      </c>
-      <c r="F17">
-        <v>69</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>44143.666666666664</v>
-      </c>
-      <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="D18">
-        <v>0.93</v>
-      </c>
-      <c r="E18">
-        <v>95</v>
-      </c>
-      <c r="F18">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -5642,7 +6733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9691B-EAB5-E64B-9BE7-BF09DD739739}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -5654,48 +6745,48 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>98</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" t="s">
         <v>100</v>
       </c>
-      <c r="D1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>101</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>103</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>104</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>105</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>106</v>
-      </c>
-      <c r="K1" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>16</v>
@@ -5730,10 +6821,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -5768,10 +6859,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>8</v>

--- a/PPP_ANALYSIS.xlsx
+++ b/PPP_ANALYSIS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/waelivie/Desktop/MBB_performance_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1AB2C4-38A1-AE4C-9E94-A935959EA016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CC855-1D5E-5C4E-BF84-3F0A7A7CCD68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13060" yWindow="460" windowWidth="15740" windowHeight="17540" firstSheet="1" activeTab="5" xr2:uid="{066ADAC1-9B2C-B745-ADE5-8390A8851205}"/>
+    <workbookView xWindow="4260" yWindow="460" windowWidth="20920" windowHeight="17540" activeTab="7" xr2:uid="{066ADAC1-9B2C-B745-ADE5-8390A8851205}"/>
   </bookViews>
   <sheets>
     <sheet name="17_18PerOpp" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -834,7 +834,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2576,10 +2576,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803C55FD-0891-466F-AF35-ED0D71C4FE44}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3297,6 +3297,9 @@
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4503,10 +4506,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C273C7-97DF-4ACE-A458-8B14F3E8F8D8}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" activeCellId="1" sqref="I1 J1"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5061,6 +5064,9 @@
         <v>136</v>
       </c>
     </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5068,10 +5074,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77267967-BA35-EE4A-8F7E-340F63D5A37B}">
-  <dimension ref="A1:U47"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5081,16 +5087,16 @@
     <col min="3" max="3" width="14.1640625" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="14" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="14" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="20" max="20" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5112,50 +5118,53 @@
       <c r="G1" t="s">
         <v>116</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="K1" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="N1" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="P1" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>122</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="T1" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43862.833333333336</v>
       </c>
@@ -5174,55 +5183,55 @@
       <c r="F2">
         <v>80</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.23</v>
       </c>
-      <c r="H2" s="12">
-        <v>1</v>
-      </c>
       <c r="I2" s="12">
-        <v>0</v>
-      </c>
-      <c r="J2" s="10">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="10">
         <v>7</v>
       </c>
-      <c r="K2" s="11">
+      <c r="L2" s="11">
         <v>92.4</v>
       </c>
-      <c r="L2" s="11">
+      <c r="M2" s="11">
         <v>103.9</v>
-      </c>
-      <c r="M2">
-        <f>0.01*K2</f>
-        <v>0.92400000000000004</v>
       </c>
       <c r="N2">
         <f>0.01*L2</f>
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O2">
+        <f>0.01*M2</f>
         <v>1.0390000000000001</v>
       </c>
-      <c r="O2" s="11">
+      <c r="P2" s="11">
         <v>77</v>
       </c>
-      <c r="P2" s="11">
+      <c r="Q2" s="11">
         <v>79</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>50</v>
       </c>
-      <c r="R2" s="11">
+      <c r="S2" s="11">
         <v>1.266</v>
       </c>
-      <c r="S2" s="3">
+      <c r="T2" s="3">
         <v>0.96438095238095201</v>
       </c>
-      <c r="T2" s="11">
+      <c r="U2" s="11">
         <v>80</v>
       </c>
-      <c r="U2" s="11">
+      <c r="V2" s="11">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43860.770833333336</v>
       </c>
@@ -5241,56 +5250,56 @@
       <c r="F3">
         <v>85</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.23</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J6" si="0">ABS(E3-F3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">ABS(E3-F3)</f>
         <v>22</v>
       </c>
-      <c r="K3" s="4">
+      <c r="L3" s="4">
         <v>91.3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="M3" s="4">
         <v>123.2</v>
-      </c>
-      <c r="M3">
-        <f>0.01*K3</f>
-        <v>0.91300000000000003</v>
       </c>
       <c r="N3">
         <f>0.01*L3</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="O3">
+        <f>0.01*M3</f>
         <v>1.232</v>
-      </c>
-      <c r="O3">
-        <v>69</v>
       </c>
       <c r="P3">
         <v>69</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="Q3">
+        <v>69</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>1.266</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>85</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43855.583333333336</v>
       </c>
@@ -5309,56 +5318,56 @@
       <c r="F4">
         <v>57</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1.23</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>82.6</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>133.30000000000001</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M23" si="1">0.01*K4</f>
+      <c r="N4">
+        <f t="shared" ref="N4:N23" si="1">0.01*L4</f>
         <v>0.82599999999999996</v>
       </c>
-      <c r="N4">
-        <f t="shared" ref="N4:N23" si="2">0.01*L4</f>
+      <c r="O4">
+        <f t="shared" ref="O4:O23" si="2">0.01*M4</f>
         <v>1.3330000000000002</v>
-      </c>
-      <c r="O4">
-        <v>69</v>
       </c>
       <c r="P4">
         <v>69</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="Q4">
+        <v>69</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>1.266</v>
       </c>
-      <c r="S4" s="3">
+      <c r="T4" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>92</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43853.770833333336</v>
       </c>
@@ -5377,56 +5386,56 @@
       <c r="F5">
         <v>56</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.23</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="K5" s="9">
+      <c r="L5" s="9">
         <v>82.4</v>
       </c>
-      <c r="L5" s="9">
+      <c r="M5" s="9">
         <v>119.1</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <f t="shared" si="1"/>
         <v>0.82400000000000007</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <f t="shared" si="2"/>
         <v>1.1910000000000001</v>
       </c>
-      <c r="O5">
-        <v>68</v>
-      </c>
       <c r="P5">
         <v>68</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="Q5">
+        <v>68</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>1.266</v>
       </c>
-      <c r="S5" s="3">
+      <c r="T5" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>81</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43848.770833333336</v>
       </c>
@@ -5445,56 +5454,56 @@
       <c r="F6">
         <v>87</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1.23</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>81.900000000000006</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>120.8</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <f t="shared" si="1"/>
         <v>0.81900000000000006</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="2"/>
         <v>1.208</v>
       </c>
-      <c r="O6">
-        <v>72</v>
-      </c>
       <c r="P6">
         <v>72</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="Q6">
+        <v>72</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>1.266</v>
       </c>
-      <c r="S6" s="3">
+      <c r="T6" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>87</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43846.770833333336</v>
       </c>
@@ -5513,56 +5522,56 @@
       <c r="F7">
         <v>69</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.23</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J23" si="3">ABS(E7-F7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:K23" si="3">ABS(E7-F7)</f>
         <v>12</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>95</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>115</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <f t="shared" si="1"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="2"/>
         <v>1.1500000000000001</v>
       </c>
-      <c r="O7">
-        <v>60</v>
-      </c>
       <c r="P7">
         <v>60</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7">
+        <v>60</v>
+      </c>
+      <c r="R7" t="s">
         <v>55</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>1.266</v>
       </c>
-      <c r="S7" s="3">
+      <c r="T7" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>69</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43841.770833333336</v>
       </c>
@@ -5581,56 +5590,56 @@
       <c r="F8">
         <v>70</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.23</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>106.1</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>132.30000000000001</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <f t="shared" si="1"/>
         <v>1.0609999999999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="2"/>
         <v>1.3230000000000002</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>65</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>66</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.266</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>86</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43839.770833333336</v>
       </c>
@@ -5649,56 +5658,56 @@
       <c r="F9">
         <v>60</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.23</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>85.7</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>107.2</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <f t="shared" si="1"/>
         <v>0.8570000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="2"/>
         <v>1.0720000000000001</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>69</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>70</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>1.266</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>74</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43834.770833333336</v>
       </c>
@@ -5717,56 +5726,56 @@
       <c r="F10">
         <v>76</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>1.23</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>101.4</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>105.6</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <f t="shared" si="1"/>
         <v>1.014</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="2"/>
         <v>1.056</v>
       </c>
-      <c r="O10">
-        <v>72</v>
-      </c>
       <c r="P10">
         <v>72</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10">
+        <v>72</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>1.266</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>76</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43832.770833333336</v>
       </c>
@@ -5785,56 +5794,56 @@
       <c r="F11">
         <v>94</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.23</v>
       </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>102.9</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>136.19999999999999</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <f t="shared" si="1"/>
         <v>1.0290000000000001</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="2"/>
         <v>1.3619999999999999</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>69</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>70</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>1.266</v>
       </c>
-      <c r="S11" s="3">
+      <c r="T11" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>94</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>44187.604166666664</v>
       </c>
@@ -5853,56 +5862,56 @@
       <c r="F12">
         <v>56</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>1.23</v>
       </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="K12" s="4">
+      <c r="L12" s="4">
         <v>81.2</v>
       </c>
-      <c r="L12" s="4">
+      <c r="M12" s="4">
         <v>95.7</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <f t="shared" si="1"/>
         <v>0.81200000000000006</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="2"/>
         <v>0.95700000000000007</v>
       </c>
-      <c r="O12">
-        <v>69</v>
-      </c>
       <c r="P12">
         <v>69</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q12">
+        <v>69</v>
+      </c>
+      <c r="R12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>1.266</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>66</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>44184.770833333336</v>
       </c>
@@ -5921,56 +5930,56 @@
       <c r="F13">
         <v>84</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.23</v>
       </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="K13" s="4">
+      <c r="L13" s="4">
         <v>109.5</v>
       </c>
-      <c r="L13" s="4">
+      <c r="M13" s="4">
         <v>133.30000000000001</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <f t="shared" si="1"/>
         <v>1.095</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="2"/>
         <v>1.3330000000000002</v>
       </c>
-      <c r="O13">
-        <v>63</v>
-      </c>
       <c r="P13">
         <v>63</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13">
+        <v>63</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>1.266</v>
       </c>
-      <c r="S13" s="3">
+      <c r="T13" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>84</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>44182.770833333336</v>
       </c>
@@ -5989,56 +5998,56 @@
       <c r="F14">
         <v>65</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.23</v>
       </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>108.3</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>142.4</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <f t="shared" si="1"/>
         <v>1.083</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="2"/>
         <v>1.4240000000000002</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>59</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>60</v>
       </c>
-      <c r="Q14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>1.266</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>84</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>44170.770833333336</v>
       </c>
@@ -6057,56 +6066,56 @@
       <c r="F15">
         <v>73</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>1.23</v>
       </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>119.1</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>105.8</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <f t="shared" si="1"/>
         <v>1.1910000000000001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="2"/>
         <v>1.0580000000000001</v>
       </c>
-      <c r="O15">
-        <v>69</v>
-      </c>
       <c r="P15">
         <v>69</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15">
+        <v>69</v>
+      </c>
+      <c r="R15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>1.266</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>73</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>44165.75</v>
       </c>
@@ -6125,56 +6134,56 @@
       <c r="F16">
         <v>63</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>1.23</v>
       </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>95.5</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <v>146.19999999999999</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <f t="shared" si="1"/>
         <v>0.95500000000000007</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="2"/>
         <v>1.462</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>65</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>66</v>
       </c>
-      <c r="Q16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.266</v>
       </c>
-      <c r="S16" s="3">
+      <c r="T16" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>95</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>44164.666666666664</v>
       </c>
@@ -6193,56 +6202,56 @@
       <c r="F17">
         <v>80</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.23</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>119.4</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>146.30000000000001</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <f t="shared" si="1"/>
         <v>1.1940000000000002</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <f t="shared" si="2"/>
         <v>1.4630000000000001</v>
       </c>
-      <c r="O17">
-        <v>67</v>
-      </c>
       <c r="P17">
         <v>67</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17">
+        <v>67</v>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.266</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>98</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>44159.583333333336</v>
       </c>
@@ -6261,56 +6270,56 @@
       <c r="F18">
         <v>77</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>1.23</v>
       </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>102.7</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <v>116.2</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <f t="shared" si="1"/>
         <v>1.0270000000000001</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <f t="shared" si="2"/>
         <v>1.1620000000000001</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>74</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>75</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>1.266</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>86</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>44156.770833333336</v>
       </c>
@@ -6329,56 +6338,56 @@
       <c r="F19">
         <v>81</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.23</v>
       </c>
-      <c r="H19">
-        <v>1</v>
-      </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>83.1</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>126.6</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>0.83099999999999996</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="2"/>
         <v>1.266</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>64</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>65</v>
       </c>
-      <c r="Q19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>1.266</v>
       </c>
-      <c r="S19" s="3">
+      <c r="T19" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>81</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>44154.75</v>
       </c>
@@ -6397,56 +6406,56 @@
       <c r="F20">
         <v>88</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>1.23</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>92.6</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <v>131.30000000000001</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <f t="shared" si="1"/>
         <v>0.92599999999999993</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <f t="shared" si="2"/>
         <v>1.3130000000000002</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>67</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>68</v>
       </c>
-      <c r="Q20" s="1" t="s">
+      <c r="R20" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>1.266</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>88</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>44146.75</v>
       </c>
@@ -6465,56 +6474,56 @@
       <c r="F21">
         <v>55</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.23</v>
       </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>79.7</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>130.4</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="1"/>
         <v>0.79700000000000004</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="2"/>
         <v>1.304</v>
       </c>
-      <c r="O21">
-        <v>69</v>
-      </c>
       <c r="P21">
         <v>69</v>
       </c>
-      <c r="Q21" s="1" t="s">
+      <c r="Q21">
+        <v>69</v>
+      </c>
+      <c r="R21" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>1.266</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>88</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>44144.770833333336</v>
       </c>
@@ -6533,56 +6542,56 @@
       <c r="F22">
         <v>69</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>1.23</v>
       </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>106.2</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <v>116.9</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <f t="shared" si="1"/>
         <v>1.0620000000000001</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <f t="shared" si="2"/>
         <v>1.169</v>
       </c>
-      <c r="O22">
-        <v>65</v>
-      </c>
       <c r="P22">
         <v>65</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22">
+        <v>65</v>
+      </c>
+      <c r="R22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>1.266</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>76</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>44143.666666666664</v>
       </c>
@@ -6601,81 +6610,81 @@
       <c r="F23">
         <v>70</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>1.23</v>
       </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>98.6</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>131.9</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <f t="shared" si="1"/>
         <v>0.98599999999999999</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <f t="shared" si="2"/>
         <v>1.3190000000000002</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>72</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>71</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="R23" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>1.266</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>0.96438095238095245</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>95</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
-      <c r="L25" s="10"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="M25" s="10"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
@@ -6904,7 +6913,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A44C8E-6FC6-A54E-ACBE-C66CD4E6933E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
